--- a/medicine/Mort/Terrorisme_en_1998/Terrorisme_en_1998.xlsx
+++ b/medicine/Mort/Terrorisme_en_1998/Terrorisme_en_1998.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chronologie du terrorisme
@@ -525,23 +537,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-25 janvier, Sri Lanka : attentat des Tigres Tamouls contre le Sri Dalada Maligawa à Kandy, l'un des temples bouddhistes les plus sacrés au monde, qui fait huit morts et vingt-cinq blessés[réf. obsolète].
-Février
-6 février, France : Claude Érignac, préfet de la Corse-du-Sud, est assassiné à Ajaccio par des indépendantistes. Yvan Colonna est reconnu coupable de l'assassinat du préfet Érignac, et condamné à la réclusion criminelle à perpétuité[1].
-Mars
-Avril
-Mai
-Juin
-Juillet
-Août
-7 août, Kenya et Tanzanie : une série d'attentats-suicides contre les ambassades américaines en Afrique, attentats-suicides à Nairobi et à Dar-es-Salaam font deux cent cinquante morts[2].
-15 août, Irlande du Nord : un attentat à la voiture piégée à Omagh fait vingt-neuf morts et deux cent vingt blessés, à la suite d'une alerte insuffisamment précise[3].
-27 août, Afrique du Sud : l'explosion d'une bombe dans un restaurant Planet Hollywood du Cap fait un mort et vingt-sept blessés[4].
-Septembre
-Octobre
-Novembre
-Décembre</t>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>25 janvier, Sri Lanka : attentat des Tigres Tamouls contre le Sri Dalada Maligawa à Kandy, l'un des temples bouddhistes les plus sacrés au monde, qui fait huit morts et vingt-cinq blessés[réf. obsolète].</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1998</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1998</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>6 février, France : Claude Érignac, préfet de la Corse-du-Sud, est assassiné à Ajaccio par des indépendantistes. Yvan Colonna est reconnu coupable de l'assassinat du préfet Érignac, et condamné à la réclusion criminelle à perpétuité.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1998</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1998</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>7 août, Kenya et Tanzanie : une série d'attentats-suicides contre les ambassades américaines en Afrique, attentats-suicides à Nairobi et à Dar-es-Salaam font deux cent cinquante morts.
+15 août, Irlande du Nord : un attentat à la voiture piégée à Omagh fait vingt-neuf morts et deux cent vingt blessés, à la suite d'une alerte insuffisamment précise.
+27 août, Afrique du Sud : l'explosion d'une bombe dans un restaurant Planet Hollywood du Cap fait un mort et vingt-sept blessés.</t>
         </is>
       </c>
     </row>
